--- a/data/kriegsschiffe.xlsx
+++ b/data/kriegsschiffe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -520,11 +520,14 @@
   </sheetPr>
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4915,7 +4918,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
@@ -4930,15 +4933,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
@@ -4953,15 +4959,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5663265306122"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
